--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H2">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I2">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J2">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>132.3902682185072</v>
+        <v>140.687666296415</v>
       </c>
       <c r="R2">
-        <v>132.3902682185072</v>
+        <v>562.7506651856601</v>
       </c>
       <c r="S2">
-        <v>0.003768221712424415</v>
+        <v>0.003798896823896307</v>
       </c>
       <c r="T2">
-        <v>0.003768221712424415</v>
+        <v>0.001889721533713569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H3">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I3">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J3">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>510.5592864598854</v>
+        <v>546.7744644548931</v>
       </c>
       <c r="R3">
-        <v>510.5592864598854</v>
+        <v>3280.646786729358</v>
       </c>
       <c r="S3">
-        <v>0.01453203936064773</v>
+        <v>0.01476419242059904</v>
       </c>
       <c r="T3">
-        <v>0.01453203936064773</v>
+        <v>0.01101643989233737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H4">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I4">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J4">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>732.7544626203477</v>
+        <v>752.543359357517</v>
       </c>
       <c r="R4">
-        <v>732.7544626203477</v>
+        <v>4515.260156145103</v>
       </c>
       <c r="S4">
-        <v>0.02085637647749614</v>
+        <v>0.02032043499594518</v>
       </c>
       <c r="T4">
-        <v>0.02085637647749614</v>
+        <v>0.01516228211755425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H5">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I5">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J5">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>730.2842222493397</v>
+        <v>744.7209262012846</v>
       </c>
       <c r="R5">
-        <v>730.2842222493397</v>
+        <v>4468.325557207707</v>
       </c>
       <c r="S5">
-        <v>0.02078606607231156</v>
+        <v>0.02010921096149611</v>
       </c>
       <c r="T5">
-        <v>0.02078606607231156</v>
+        <v>0.01500467533399062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H6">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I6">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J6">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>99.56603169180404</v>
+        <v>110.058015155612</v>
       </c>
       <c r="R6">
-        <v>99.56603169180404</v>
+        <v>660.3480909336722</v>
       </c>
       <c r="S6">
-        <v>0.002833946085989915</v>
+        <v>0.002971824433693376</v>
       </c>
       <c r="T6">
-        <v>0.002833946085989915</v>
+        <v>0.002217454521839283</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.29434122236106</v>
+        <v>9.385801000000001</v>
       </c>
       <c r="H7">
-        <v>9.29434122236106</v>
+        <v>18.771602</v>
       </c>
       <c r="I7">
-        <v>0.06956778547866768</v>
+        <v>0.06848010139180623</v>
       </c>
       <c r="J7">
-        <v>0.06956778547866768</v>
+        <v>0.04853166157087635</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>238.595378585988</v>
+        <v>241.295409384958</v>
       </c>
       <c r="R7">
-        <v>238.595378585988</v>
+        <v>965.1816375398321</v>
       </c>
       <c r="S7">
-        <v>0.006791135769797908</v>
+        <v>0.006515541756176208</v>
       </c>
       <c r="T7">
-        <v>0.006791135769797908</v>
+        <v>0.003241088171441263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H8">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I8">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J8">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>490.6288520295153</v>
+        <v>546.3126031694567</v>
       </c>
       <c r="R8">
-        <v>490.6288520295153</v>
+        <v>3277.875619016741</v>
       </c>
       <c r="S8">
-        <v>0.01396475978059116</v>
+        <v>0.01475172108308586</v>
       </c>
       <c r="T8">
-        <v>0.01396475978059116</v>
+        <v>0.01100713428752153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H9">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I9">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J9">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>1892.096148603501</v>
+        <v>2123.212282117085</v>
       </c>
       <c r="R9">
-        <v>1892.096148603501</v>
+        <v>19108.91053905376</v>
       </c>
       <c r="S9">
-        <v>0.05385469706424861</v>
+        <v>0.05733170936248416</v>
       </c>
       <c r="T9">
-        <v>0.05385469706424861</v>
+        <v>0.06416788458089633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H10">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I10">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J10">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>2715.535557504585</v>
+        <v>2922.245655722908</v>
       </c>
       <c r="R10">
-        <v>2715.535557504585</v>
+        <v>26300.21090150618</v>
       </c>
       <c r="S10">
-        <v>0.0772922374608412</v>
+        <v>0.07890748373621592</v>
       </c>
       <c r="T10">
-        <v>0.0772922374608412</v>
+        <v>0.08831633253669771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H11">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I11">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J11">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>2706.381023611926</v>
+        <v>2891.869902586904</v>
       </c>
       <c r="R11">
-        <v>2706.381023611926</v>
+        <v>26026.82912328214</v>
       </c>
       <c r="S11">
-        <v>0.07703167213496311</v>
+        <v>0.07808726718739137</v>
       </c>
       <c r="T11">
-        <v>0.07703167213496311</v>
+        <v>0.0873983141935929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H12">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I12">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J12">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>368.9845823822818</v>
+        <v>427.3727921013788</v>
       </c>
       <c r="R12">
-        <v>368.9845823822818</v>
+        <v>3846.355128912409</v>
       </c>
       <c r="S12">
-        <v>0.01050240122323734</v>
+        <v>0.01154006733691193</v>
       </c>
       <c r="T12">
-        <v>0.01050240122323734</v>
+        <v>0.01291609333063588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.4441628955031</v>
+        <v>36.44655933333333</v>
       </c>
       <c r="H13">
-        <v>34.4441628955031</v>
+        <v>109.339678</v>
       </c>
       <c r="I13">
-        <v>0.2578132304354898</v>
+        <v>0.2659191345021217</v>
       </c>
       <c r="J13">
-        <v>0.2578132304354898</v>
+        <v>0.2826842508681249</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>884.217384483148</v>
+        <v>936.9884845214414</v>
       </c>
       <c r="R13">
-        <v>884.217384483148</v>
+        <v>5621.930907128648</v>
       </c>
       <c r="S13">
-        <v>0.02516746277160836</v>
+        <v>0.02530088579603243</v>
       </c>
       <c r="T13">
-        <v>0.02516746277160836</v>
+        <v>0.01887849193878053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H14">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I14">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J14">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>499.5781494438905</v>
+        <v>526.2237442182118</v>
       </c>
       <c r="R14">
-        <v>499.5781494438905</v>
+        <v>3157.342465309271</v>
       </c>
       <c r="S14">
-        <v>0.01421948346445086</v>
+        <v>0.01420927479426338</v>
       </c>
       <c r="T14">
-        <v>0.01421948346445086</v>
+        <v>0.01060238292927611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H15">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I15">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J15">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>1926.60885836446</v>
+        <v>2045.138095632006</v>
       </c>
       <c r="R15">
-        <v>1926.60885836446</v>
+        <v>18406.24286068805</v>
       </c>
       <c r="S15">
-        <v>0.05483703167256891</v>
+        <v>0.05522352328708537</v>
       </c>
       <c r="T15">
-        <v>0.05483703167256891</v>
+        <v>0.06180832052349245</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H16">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I16">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J16">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>2765.068183323252</v>
+        <v>2814.789630622758</v>
       </c>
       <c r="R16">
-        <v>2765.068183323252</v>
+        <v>25333.10667560482</v>
       </c>
       <c r="S16">
-        <v>0.07870208365720387</v>
+        <v>0.07600591913423141</v>
       </c>
       <c r="T16">
-        <v>0.07870208365720387</v>
+        <v>0.0850687882971396</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H17">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I17">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J17">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>2755.746666493987</v>
+        <v>2785.530846446918</v>
       </c>
       <c r="R17">
-        <v>2755.746666493987</v>
+        <v>25069.77761802226</v>
       </c>
       <c r="S17">
-        <v>0.07843676549914416</v>
+        <v>0.07521586336599882</v>
       </c>
       <c r="T17">
-        <v>0.07843676549914416</v>
+        <v>0.08418452707569424</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H18">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I18">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J18">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>375.715031998929</v>
+        <v>411.6575556409428</v>
       </c>
       <c r="R18">
-        <v>375.715031998929</v>
+        <v>3704.918000768485</v>
       </c>
       <c r="S18">
-        <v>0.01069396988399396</v>
+        <v>0.01111571910903994</v>
       </c>
       <c r="T18">
-        <v>0.01069396988399396</v>
+        <v>0.01244114624793097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0724403738168</v>
+        <v>35.10635633333334</v>
       </c>
       <c r="H19">
-        <v>35.0724403738168</v>
+        <v>105.319069</v>
       </c>
       <c r="I19">
-        <v>0.2625158631220594</v>
+        <v>0.2561408281726349</v>
       </c>
       <c r="J19">
-        <v>0.2625158631220594</v>
+        <v>0.2722894622242564</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>900.3459189547096</v>
+        <v>902.5337979641674</v>
       </c>
       <c r="R19">
-        <v>900.3459189547096</v>
+        <v>5415.202787785005</v>
       </c>
       <c r="S19">
-        <v>0.02562652894469757</v>
+        <v>0.02437052848201602</v>
       </c>
       <c r="T19">
-        <v>0.02562652894469757</v>
+        <v>0.01818429715072301</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H20">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I20">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J20">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>438.7555632717661</v>
+        <v>473.4623224867317</v>
       </c>
       <c r="R20">
-        <v>438.7555632717661</v>
+        <v>2840.77393492039</v>
       </c>
       <c r="S20">
-        <v>0.01248829133904987</v>
+        <v>0.01278459271148808</v>
       </c>
       <c r="T20">
-        <v>0.01248829133904987</v>
+        <v>0.009539343104037408</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H21">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I21">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J21">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>1692.048292738657</v>
+        <v>1840.08388675539</v>
       </c>
       <c r="R21">
-        <v>1692.048292738657</v>
+        <v>16560.75498079851</v>
       </c>
       <c r="S21">
-        <v>0.04816073870811261</v>
+        <v>0.04968657890998045</v>
       </c>
       <c r="T21">
-        <v>0.04816073870811261</v>
+        <v>0.0556111564816088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H22">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I22">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J22">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>2428.42696304733</v>
+        <v>2532.566898527454</v>
       </c>
       <c r="R22">
-        <v>2428.42696304733</v>
+        <v>22793.10208674708</v>
       </c>
       <c r="S22">
-        <v>0.06912027094082591</v>
+        <v>0.0683852437131941</v>
       </c>
       <c r="T22">
-        <v>0.06912027094082591</v>
+        <v>0.07653943122261318</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H23">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I23">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J23">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>2420.240321234584</v>
+        <v>2506.241723996206</v>
       </c>
       <c r="R23">
-        <v>2420.240321234584</v>
+        <v>22556.17551596585</v>
       </c>
       <c r="S23">
-        <v>0.06888725470900053</v>
+        <v>0.06767440228303938</v>
       </c>
       <c r="T23">
-        <v>0.06888725470900053</v>
+        <v>0.07574382977704849</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H24">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I24">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J24">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>329.9725191701449</v>
+        <v>370.3830252899987</v>
       </c>
       <c r="R24">
-        <v>329.9725191701449</v>
+        <v>3333.447227609989</v>
       </c>
       <c r="S24">
-        <v>0.009392001602323986</v>
+        <v>0.01000121002387496</v>
       </c>
       <c r="T24">
-        <v>0.009392001602323986</v>
+        <v>0.01119374422317948</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.8024447199281</v>
+        <v>31.58644433333333</v>
       </c>
       <c r="H25">
-        <v>30.8024447199281</v>
+        <v>94.759333</v>
       </c>
       <c r="I25">
-        <v>0.2305551103868471</v>
+        <v>0.2304590637020015</v>
       </c>
       <c r="J25">
-        <v>0.2305551103868471</v>
+        <v>0.244988567296386</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>790.7307019935565</v>
+        <v>812.0419361572713</v>
       </c>
       <c r="R25">
-        <v>790.7307019935565</v>
+        <v>4872.251616943628</v>
       </c>
       <c r="S25">
-        <v>0.02250655308753417</v>
+        <v>0.02192703606042454</v>
       </c>
       <c r="T25">
-        <v>0.02250655308753417</v>
+        <v>0.01636106248789868</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H26">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I26">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J26">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>130.8382663589841</v>
+        <v>142.907029060145</v>
       </c>
       <c r="R26">
-        <v>130.8382663589841</v>
+        <v>857.4421743608701</v>
       </c>
       <c r="S26">
-        <v>0.003724047112708931</v>
+        <v>0.003858824821681445</v>
       </c>
       <c r="T26">
-        <v>0.003724047112708931</v>
+        <v>0.00287929813511522</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H27">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I27">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J27">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>504.5740356355973</v>
+        <v>555.399889259459</v>
       </c>
       <c r="R27">
-        <v>504.5740356355973</v>
+        <v>4998.599003335131</v>
       </c>
       <c r="S27">
-        <v>0.01436168127909174</v>
+        <v>0.01499709911211943</v>
       </c>
       <c r="T27">
-        <v>0.01436168127909174</v>
+        <v>0.01678533808908998</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H28">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I28">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J28">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>724.1644332785862</v>
+        <v>764.414810166371</v>
       </c>
       <c r="R28">
-        <v>724.1644332785862</v>
+        <v>6879.733291497339</v>
       </c>
       <c r="S28">
-        <v>0.02061187863402502</v>
+        <v>0.02064099199969687</v>
       </c>
       <c r="T28">
-        <v>0.02061187863402502</v>
+        <v>0.02310220307400169</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H29">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I29">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J29">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>721.7231513627644</v>
+        <v>756.4689773026465</v>
       </c>
       <c r="R29">
-        <v>721.7231513627644</v>
+        <v>6808.220795723818</v>
       </c>
       <c r="S29">
-        <v>0.02054239247280533</v>
+        <v>0.02042643588384222</v>
       </c>
       <c r="T29">
-        <v>0.02054239247280533</v>
+        <v>0.02286206350322351</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H30">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I30">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J30">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>98.39882606249016</v>
+        <v>111.794191944356</v>
       </c>
       <c r="R30">
-        <v>98.39882606249016</v>
+        <v>1006.147727499204</v>
       </c>
       <c r="S30">
-        <v>0.002800723934132156</v>
+        <v>0.003018705277353018</v>
       </c>
       <c r="T30">
-        <v>0.002800723934132156</v>
+        <v>0.003378652650947889</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.185384309936509</v>
+        <v>9.533863</v>
       </c>
       <c r="H31">
-        <v>9.185384309936509</v>
+        <v>28.601589</v>
       </c>
       <c r="I31">
-        <v>0.06875224719266922</v>
+        <v>0.0695603822087843</v>
       </c>
       <c r="J31">
-        <v>0.06875224719266922</v>
+        <v>0.07394588047079305</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N31">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O31">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P31">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q31">
-        <v>235.7983416419438</v>
+        <v>245.101869899554</v>
       </c>
       <c r="R31">
-        <v>235.7983416419438</v>
+        <v>1470.611219397324</v>
       </c>
       <c r="S31">
-        <v>0.006711523759906028</v>
+        <v>0.006618325114091314</v>
       </c>
       <c r="T31">
-        <v>0.006711523759906028</v>
+        <v>0.004938325018414761</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H32">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I32">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J32">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N32">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O32">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P32">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q32">
-        <v>210.848753212293</v>
+        <v>224.837972296945</v>
       </c>
       <c r="R32">
-        <v>210.848753212293</v>
+        <v>899.35188918778</v>
       </c>
       <c r="S32">
-        <v>0.006001384094039558</v>
+        <v>0.006071152371314267</v>
       </c>
       <c r="T32">
-        <v>0.006001384094039558</v>
+        <v>0.00302003131497575</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H33">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I33">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J33">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N33">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P33">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q33">
-        <v>813.132191962551</v>
+        <v>873.819753558019</v>
       </c>
       <c r="R33">
-        <v>813.132191962551</v>
+        <v>5242.918521348114</v>
       </c>
       <c r="S33">
-        <v>0.02314416627487585</v>
+        <v>0.02359518196467518</v>
       </c>
       <c r="T33">
-        <v>0.02314416627487585</v>
+        <v>0.01760576511451754</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H34">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I34">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J34">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N34">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O34">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P34">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q34">
-        <v>1167.006963074089</v>
+        <v>1202.666356175011</v>
       </c>
       <c r="R34">
-        <v>1167.006963074089</v>
+        <v>7215.998137050065</v>
       </c>
       <c r="S34">
-        <v>0.03321649722431421</v>
+        <v>0.03247481119669846</v>
       </c>
       <c r="T34">
-        <v>0.03321649722431421</v>
+        <v>0.02423138329356164</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H35">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I35">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J35">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N35">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O35">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P35">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q35">
-        <v>1163.072783399325</v>
+        <v>1190.1650470299</v>
       </c>
       <c r="R35">
-        <v>1163.072783399325</v>
+        <v>7140.990282179398</v>
       </c>
       <c r="S35">
-        <v>0.03310451874228143</v>
+        <v>0.03213724654120229</v>
       </c>
       <c r="T35">
-        <v>0.03310451874228143</v>
+        <v>0.02397950627712134</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H36">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I36">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J36">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N36">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O36">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P36">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q36">
-        <v>158.5718793911909</v>
+        <v>175.887635455396</v>
       </c>
       <c r="R36">
-        <v>158.5718793911909</v>
+        <v>1055.325812732376</v>
       </c>
       <c r="S36">
-        <v>0.004513428418436428</v>
+        <v>0.004749378515429692</v>
       </c>
       <c r="T36">
-        <v>0.004513428418436428</v>
+        <v>0.003543793080628707</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8024494929643</v>
+        <v>14.999783</v>
       </c>
       <c r="H37">
-        <v>14.8024494929643</v>
+        <v>29.999566</v>
       </c>
       <c r="I37">
-        <v>0.1107957633842668</v>
+        <v>0.1094404900226514</v>
       </c>
       <c r="J37">
-        <v>0.1107957633842668</v>
+        <v>0.07756017756956324</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N37">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O37">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P37">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q37">
-        <v>379.9942304976612</v>
+        <v>385.622791242914</v>
       </c>
       <c r="R37">
-        <v>379.9942304976612</v>
+        <v>1542.491164971656</v>
       </c>
       <c r="S37">
-        <v>0.01081576863031935</v>
+        <v>0.01041271943333148</v>
       </c>
       <c r="T37">
-        <v>0.01081576863031935</v>
+        <v>0.005179698488758257</v>
       </c>
     </row>
   </sheetData>
